--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/Coding_SRI.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/Coding_SRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{F4E66D27-8C80-47F3-B11A-3190810D3619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{254FC79E-4249-446B-B246-26D5A46A2A11}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{BCBBD0FC-4723-442C-8B9A-91266470354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D358537F-D4A0-4E5D-BE26-6DF74DBBE246}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="26">
   <si>
     <t>Event</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>head on table</t>
-  </si>
-  <si>
-    <t>locking at phone</t>
   </si>
   <si>
     <t>clicking pen</t>
@@ -82,7 +79,13 @@
     <t>08</t>
   </si>
   <si>
+    <t>nicht erkannt</t>
+  </si>
+  <si>
     <t xml:space="preserve">chatting </t>
+  </si>
+  <si>
+    <t>nicht erfragt</t>
   </si>
   <si>
     <t>Confident Factor</t>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>looking at phone</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,22 +524,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -624,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -664,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
@@ -684,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -721,7 +727,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -741,7 +747,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -761,7 +767,7 @@
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -781,7 +787,7 @@
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -801,7 +807,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -821,10 +827,10 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -841,13 +847,13 @@
         <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>-99</v>
@@ -861,10 +867,10 @@
         <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -881,7 +887,7 @@
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
@@ -901,7 +907,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -921,7 +927,7 @@
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -941,7 +947,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -961,10 +967,10 @@
         <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -981,7 +987,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -1001,10 +1007,10 @@
         <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -1021,7 +1027,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1041,10 +1047,10 @@
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
@@ -1081,7 +1087,7 @@
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -1101,10 +1107,10 @@
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1121,7 +1127,7 @@
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -1141,10 +1147,10 @@
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1161,7 +1167,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1181,10 +1187,10 @@
         <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1201,7 +1207,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -1221,13 +1227,13 @@
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>-99</v>
@@ -1241,7 +1247,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -1261,10 +1267,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -1281,10 +1287,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
@@ -1301,7 +1307,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -1321,10 +1327,10 @@
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
@@ -1341,7 +1347,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -1361,7 +1367,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -1381,7 +1387,7 @@
         <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -1401,7 +1407,7 @@
         <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -1421,7 +1427,7 @@
         <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
@@ -1441,10 +1447,10 @@
         <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
@@ -1461,10 +1467,10 @@
         <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1481,10 +1487,10 @@
         <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1501,7 +1507,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -1521,7 +1527,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
@@ -1541,7 +1547,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -1561,7 +1567,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -1581,7 +1587,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1601,7 +1607,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
@@ -1621,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -1641,7 +1647,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -1661,10 +1667,10 @@
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1">
         <v>9</v>
@@ -1681,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -1701,10 +1707,10 @@
         <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -1721,7 +1727,7 @@
         <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -1741,7 +1747,7 @@
         <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
@@ -1761,7 +1767,7 @@
         <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -1781,7 +1787,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
@@ -1801,7 +1807,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
@@ -1821,7 +1827,7 @@
         <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -1841,10 +1847,10 @@
         <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
@@ -1861,7 +1867,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1881,10 +1887,10 @@
         <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
@@ -1901,7 +1907,7 @@
         <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -1921,10 +1927,10 @@
         <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
@@ -1941,7 +1947,7 @@
         <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -1961,7 +1967,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -2064,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1">
         <v>8</v>
@@ -2104,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
@@ -2124,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
@@ -2161,7 +2167,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -2181,7 +2187,7 @@
         <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
@@ -2201,7 +2207,7 @@
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
@@ -2221,7 +2227,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
@@ -2241,7 +2247,7 @@
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -2261,10 +2267,10 @@
         <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="1">
         <v>8</v>
@@ -2281,10 +2287,10 @@
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
@@ -2301,10 +2307,10 @@
         <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
@@ -2321,7 +2327,7 @@
         <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>18</v>
@@ -2341,7 +2347,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
@@ -2361,7 +2367,7 @@
         <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>7</v>
@@ -2381,7 +2387,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -2401,10 +2407,10 @@
         <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -2421,7 +2427,7 @@
         <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1</v>
@@ -2441,10 +2447,10 @@
         <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -2461,7 +2467,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -2481,10 +2487,10 @@
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D99" s="1">
         <v>-99</v>
@@ -2501,7 +2507,7 @@
         <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>4</v>
@@ -2521,7 +2527,7 @@
         <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>7</v>
@@ -2541,10 +2547,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -2561,7 +2567,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
@@ -2581,10 +2587,10 @@
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
@@ -2601,7 +2607,7 @@
         <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -2621,10 +2627,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D106" s="1">
         <v>4</v>
@@ -2641,7 +2647,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
@@ -2661,7 +2667,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
@@ -2681,7 +2687,7 @@
         <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>4</v>
@@ -2701,10 +2707,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="1">
         <v>-99</v>
@@ -2713,7 +2719,7 @@
         <v>-99</v>
       </c>
       <c r="F110" s="1">
-        <v>7</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2721,10 +2727,10 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1">
         <v>4</v>
@@ -2741,7 +2747,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>7</v>
@@ -2761,10 +2767,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1">
         <v>5</v>
@@ -2781,7 +2787,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>6</v>
@@ -2801,7 +2807,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
@@ -2821,7 +2827,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -2841,7 +2847,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -2861,7 +2867,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>4</v>
@@ -2881,10 +2887,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -2901,10 +2907,10 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -2921,10 +2927,10 @@
         <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -2941,7 +2947,7 @@
         <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
@@ -2961,7 +2967,7 @@
         <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>7</v>
@@ -2981,7 +2987,7 @@
         <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1</v>
@@ -3001,7 +3007,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>6</v>
@@ -3021,7 +3027,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -3041,7 +3047,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>4</v>
@@ -3061,10 +3067,10 @@
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D128" s="1">
         <v>-99</v>
@@ -3073,7 +3079,7 @@
         <v>-99</v>
       </c>
       <c r="F128" s="1">
-        <v>8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3081,7 +3087,7 @@
         <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
@@ -3101,10 +3107,10 @@
         <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -3121,7 +3127,7 @@
         <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -3141,10 +3147,10 @@
         <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3161,7 +3167,7 @@
         <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -3181,7 +3187,7 @@
         <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>7</v>
@@ -3201,7 +3207,7 @@
         <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>6</v>
@@ -3221,7 +3227,7 @@
         <v>115</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>4</v>
@@ -3241,7 +3247,7 @@
         <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>5</v>
@@ -3261,7 +3267,7 @@
         <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1</v>
@@ -3281,10 +3287,10 @@
         <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D139" s="1">
         <v>5</v>
@@ -3301,7 +3307,7 @@
         <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -3321,10 +3327,10 @@
         <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="1">
         <v>8</v>
@@ -3341,7 +3347,7 @@
         <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>6</v>
@@ -3361,10 +3367,10 @@
         <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -3381,7 +3387,7 @@
         <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>7</v>
@@ -3401,7 +3407,7 @@
         <v>116</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>4</v>
@@ -3504,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3544,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D152" s="1">
         <v>5</v>
@@ -3564,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153" s="1">
         <v>5</v>
@@ -3601,7 +3607,7 @@
         <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -3621,7 +3627,7 @@
         <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>6</v>
@@ -3641,7 +3647,7 @@
         <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1</v>
@@ -3661,7 +3667,7 @@
         <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>7</v>
@@ -3681,7 +3687,7 @@
         <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
@@ -3701,10 +3707,10 @@
         <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D160" s="1">
         <v>9</v>
@@ -3721,10 +3727,10 @@
         <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3741,10 +3747,10 @@
         <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
@@ -3761,7 +3767,7 @@
         <v>118</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>18</v>
@@ -3781,7 +3787,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>6</v>
@@ -3801,7 +3807,7 @@
         <v>119</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>7</v>
@@ -3821,7 +3827,7 @@
         <v>119</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -3841,10 +3847,10 @@
         <v>119</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D167" s="1">
         <v>5</v>
@@ -3861,7 +3867,7 @@
         <v>119</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>1</v>
@@ -3881,10 +3887,10 @@
         <v>119</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3901,7 +3907,7 @@
         <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>5</v>
@@ -3921,10 +3927,10 @@
         <v>119</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D171" s="1">
         <v>3</v>
@@ -3941,7 +3947,7 @@
         <v>119</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>4</v>
@@ -3961,7 +3967,7 @@
         <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>7</v>
@@ -3981,10 +3987,10 @@
         <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174" s="1">
         <v>5</v>
@@ -4001,7 +4007,7 @@
         <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>6</v>
@@ -4021,10 +4027,10 @@
         <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" s="1">
         <v>6</v>
@@ -4041,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -4061,10 +4067,10 @@
         <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D178" s="1">
         <v>6</v>
@@ -4081,7 +4087,7 @@
         <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1</v>
@@ -4101,13 +4107,13 @@
         <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="1">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="E180" s="1">
         <v>-99</v>
@@ -4121,7 +4127,7 @@
         <v>120</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>4</v>
@@ -4141,10 +4147,10 @@
         <v>121</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D182" s="1">
         <v>6</v>
@@ -4161,10 +4167,10 @@
         <v>121</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" s="1">
         <v>3</v>
@@ -4181,7 +4187,7 @@
         <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>7</v>
@@ -4201,10 +4207,10 @@
         <v>121</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D185" s="1">
         <v>-99</v>
@@ -4221,7 +4227,7 @@
         <v>121</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>6</v>
@@ -4241,7 +4247,7 @@
         <v>121</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>5</v>
@@ -4261,7 +4267,7 @@
         <v>121</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -4281,7 +4287,7 @@
         <v>121</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>1</v>
@@ -4301,7 +4307,7 @@
         <v>121</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>4</v>
@@ -4321,10 +4327,10 @@
         <v>122</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4341,10 +4347,10 @@
         <v>122</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D192" s="1">
         <v>3</v>
@@ -4361,10 +4367,10 @@
         <v>122</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193" s="1">
         <v>9</v>
@@ -4381,7 +4387,7 @@
         <v>122</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>5</v>
@@ -4401,7 +4407,7 @@
         <v>122</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>7</v>
@@ -4421,7 +4427,7 @@
         <v>122</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>1</v>
@@ -4441,7 +4447,7 @@
         <v>122</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>6</v>
@@ -4461,7 +4467,7 @@
         <v>122</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -4481,7 +4487,7 @@
         <v>122</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>4</v>
@@ -4501,10 +4507,10 @@
         <v>123</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D200" s="1">
         <v>5</v>
@@ -4521,7 +4527,7 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>5</v>
@@ -4541,10 +4547,10 @@
         <v>123</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D202" s="1">
         <v>9</v>
@@ -4561,7 +4567,7 @@
         <v>123</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>1</v>
@@ -4581,10 +4587,10 @@
         <v>123</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D204" s="1">
         <v>10</v>
@@ -4601,7 +4607,7 @@
         <v>123</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -4621,7 +4627,7 @@
         <v>123</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>7</v>
@@ -4641,7 +4647,7 @@
         <v>123</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>6</v>
@@ -4661,7 +4667,7 @@
         <v>123</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>4</v>
@@ -4681,7 +4687,7 @@
         <v>124</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>5</v>
@@ -4701,7 +4707,7 @@
         <v>124</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1</v>
@@ -4721,10 +4727,10 @@
         <v>124</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -4741,7 +4747,7 @@
         <v>124</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -4761,10 +4767,10 @@
         <v>124</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D213" s="1">
         <v>8</v>
@@ -4781,7 +4787,7 @@
         <v>124</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>6</v>
@@ -4801,10 +4807,10 @@
         <v>124</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D215" s="1">
         <v>7</v>
@@ -4821,7 +4827,7 @@
         <v>124</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>7</v>
@@ -4841,7 +4847,7 @@
         <v>124</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>4</v>
@@ -4908,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4930,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>125</v>
       </c>
@@ -4941,10 +4947,10 @@
         <v>3</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>125</v>
       </c>
@@ -4953,6 +4959,22 @@
       </c>
       <c r="C226" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G227" s="1">
+        <v>-99</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G228" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4964,10 +4986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4982,22 +5004,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5088,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -5128,10 +5150,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>-99</v>
@@ -5148,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -5185,7 +5207,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -5205,7 +5227,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -5225,7 +5247,7 @@
         <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -5245,7 +5267,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -5265,7 +5287,7 @@
         <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -5285,10 +5307,10 @@
         <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -5305,10 +5327,10 @@
         <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>-99</v>
@@ -5325,10 +5347,10 @@
         <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
@@ -5345,7 +5367,7 @@
         <v>202</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -5365,7 +5387,7 @@
         <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -5385,7 +5407,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -5405,7 +5427,7 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -5425,10 +5447,10 @@
         <v>203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -5445,7 +5467,7 @@
         <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -5465,10 +5487,10 @@
         <v>203</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>-99</v>
@@ -5485,7 +5507,7 @@
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -5505,10 +5527,10 @@
         <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -5525,7 +5547,7 @@
         <v>203</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
@@ -5545,7 +5567,7 @@
         <v>204</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -5565,10 +5587,10 @@
         <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>7</v>
@@ -5585,7 +5607,7 @@
         <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -5605,10 +5627,10 @@
         <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -5625,7 +5647,7 @@
         <v>204</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -5645,10 +5667,10 @@
         <v>204</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -5665,7 +5687,7 @@
         <v>204</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -5685,7 +5707,7 @@
         <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -5705,7 +5727,7 @@
         <v>204</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -5725,10 +5747,10 @@
         <v>205</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -5745,10 +5767,10 @@
         <v>205</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -5765,7 +5787,7 @@
         <v>205</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -5785,10 +5807,10 @@
         <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5805,7 +5827,7 @@
         <v>205</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -5825,7 +5847,7 @@
         <v>205</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -5845,7 +5867,7 @@
         <v>205</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -5865,7 +5887,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -5885,7 +5907,7 @@
         <v>205</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
@@ -5905,10 +5927,10 @@
         <v>206</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -5925,10 +5947,10 @@
         <v>206</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -5945,10 +5967,10 @@
         <v>206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -5965,7 +5987,7 @@
         <v>206</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -5985,7 +6007,7 @@
         <v>206</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
@@ -6005,7 +6027,7 @@
         <v>206</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -6025,7 +6047,7 @@
         <v>206</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -6045,7 +6067,7 @@
         <v>206</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -6065,7 +6087,7 @@
         <v>206</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>4</v>
@@ -6085,10 +6107,10 @@
         <v>207</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -6105,7 +6127,7 @@
         <v>207</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -6125,10 +6147,10 @@
         <v>207</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1">
         <v>10</v>
@@ -6145,7 +6167,7 @@
         <v>207</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -6165,10 +6187,10 @@
         <v>207</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -6185,7 +6207,7 @@
         <v>207</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -6205,7 +6227,7 @@
         <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
@@ -6225,7 +6247,7 @@
         <v>207</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -6245,7 +6267,7 @@
         <v>207</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
@@ -6265,7 +6287,7 @@
         <v>208</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
@@ -6285,7 +6307,7 @@
         <v>208</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -6305,10 +6327,10 @@
         <v>208</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -6325,7 +6347,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -6345,10 +6367,10 @@
         <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
@@ -6365,7 +6387,7 @@
         <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -6385,10 +6407,10 @@
         <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -6405,7 +6427,7 @@
         <v>208</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -6425,7 +6447,7 @@
         <v>208</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -6528,7 +6550,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -6568,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -6588,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1">
         <v>4</v>
@@ -6625,7 +6647,7 @@
         <v>210</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -6645,7 +6667,7 @@
         <v>210</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
@@ -6665,7 +6687,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
@@ -6685,7 +6707,7 @@
         <v>210</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
@@ -6705,13 +6727,13 @@
         <v>210</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>-99</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1">
         <v>-99</v>
@@ -6725,10 +6747,10 @@
         <v>210</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -6745,10 +6767,10 @@
         <v>210</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1">
         <v>8</v>
@@ -6765,10 +6787,10 @@
         <v>210</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -6785,7 +6807,7 @@
         <v>210</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>18</v>
@@ -6805,7 +6827,7 @@
         <v>211</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
@@ -6825,7 +6847,7 @@
         <v>211</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>7</v>
@@ -6845,7 +6867,7 @@
         <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -6865,10 +6887,10 @@
         <v>211</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -6885,7 +6907,7 @@
         <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1</v>
@@ -6905,10 +6927,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -6925,7 +6947,7 @@
         <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -6945,10 +6967,10 @@
         <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -6965,7 +6987,7 @@
         <v>211</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>4</v>
@@ -6985,7 +7007,7 @@
         <v>212</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>7</v>
@@ -7005,10 +7027,10 @@
         <v>212</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -7025,7 +7047,7 @@
         <v>212</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
@@ -7045,10 +7067,10 @@
         <v>212</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -7065,7 +7087,7 @@
         <v>212</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -7085,10 +7107,10 @@
         <v>212</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -7105,7 +7127,7 @@
         <v>212</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
@@ -7125,7 +7147,7 @@
         <v>212</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
@@ -7145,7 +7167,7 @@
         <v>212</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>4</v>
@@ -7165,10 +7187,10 @@
         <v>213</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -7185,10 +7207,10 @@
         <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -7205,7 +7227,7 @@
         <v>213</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>7</v>
@@ -7225,10 +7247,10 @@
         <v>213</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -7245,7 +7267,7 @@
         <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>6</v>
@@ -7265,7 +7287,7 @@
         <v>213</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
@@ -7285,7 +7307,7 @@
         <v>213</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -7305,7 +7327,7 @@
         <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -7325,7 +7347,7 @@
         <v>213</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>4</v>
@@ -7345,10 +7367,10 @@
         <v>214</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" s="1">
         <v>5</v>
@@ -7365,10 +7387,10 @@
         <v>214</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D120" s="1">
         <v>-99</v>
@@ -7385,10 +7407,10 @@
         <v>214</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121" s="1">
         <v>-99</v>
@@ -7405,7 +7427,7 @@
         <v>214</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
@@ -7425,7 +7447,7 @@
         <v>214</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>7</v>
@@ -7445,7 +7467,7 @@
         <v>214</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1</v>
@@ -7465,7 +7487,7 @@
         <v>214</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>6</v>
@@ -7485,7 +7507,7 @@
         <v>214</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -7505,7 +7527,7 @@
         <v>214</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>4</v>
@@ -7525,10 +7547,10 @@
         <v>215</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -7545,7 +7567,7 @@
         <v>215</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
@@ -7565,10 +7587,10 @@
         <v>215</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1">
         <v>5</v>
@@ -7585,7 +7607,7 @@
         <v>215</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -7605,10 +7627,10 @@
         <v>215</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -7625,7 +7647,7 @@
         <v>215</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -7645,7 +7667,7 @@
         <v>215</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>7</v>
@@ -7665,7 +7687,7 @@
         <v>215</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>6</v>
@@ -7685,7 +7707,7 @@
         <v>215</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>4</v>
@@ -7705,7 +7727,7 @@
         <v>216</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>5</v>
@@ -7725,7 +7747,7 @@
         <v>216</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1</v>
@@ -7745,10 +7767,10 @@
         <v>216</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -7765,7 +7787,7 @@
         <v>216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -7785,10 +7807,10 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="1">
         <v>6</v>
@@ -7805,7 +7827,7 @@
         <v>216</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>6</v>
@@ -7825,10 +7847,10 @@
         <v>216</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>5</v>
@@ -7845,7 +7867,7 @@
         <v>216</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>7</v>
@@ -7860,24 +7882,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>216</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2</v>
+      </c>
+      <c r="E145" s="3">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G146" s="1">
+        <v>-99</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" s="3">
-        <v>2</v>
-      </c>
-      <c r="E145" s="3">
-        <v>10</v>
-      </c>
-      <c r="F145" s="3">
-        <v>10</v>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G147" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/Coding_SRI.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/Coding_SRI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{BCBBD0FC-4723-442C-8B9A-91266470354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D358537F-D4A0-4E5D-BE26-6DF74DBBE246}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{534A4DE0-5ADC-4586-BD79-1300FA56E80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5153,7 +5153,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="E8" s="1">
         <v>-99</v>
